--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-005 - CRO atau CRM mengajukan data Non Sales.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-005 - CRO atau CRM mengajukan data Non Sales.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF9EED4-E811-44A8-B637-5CC0660D851C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B48FE9A-54D7-4F00-9580-BE0DE497C43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0282" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0018" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,9 +133,6 @@
     <t>Cuti Sakit</t>
   </si>
   <si>
-    <t>DGS-297</t>
-  </si>
-  <si>
     <t>CRO/CRM mengajukan data Non Sales NS &lt; 50% hari kerja</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
  -Klik save
  -Setelah berhasil save 
  -Kirim Usulan</t>
+  </si>
+  <si>
+    <t>SCD0018-005</t>
   </si>
 </sst>
 </file>
@@ -545,14 +545,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>24</v>
@@ -659,11 +659,11 @@
       </c>
       <c r="M2" s="5" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-11-07</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N2" s="5" t="str">
         <f ca="1">TEXT(TODAY()+30,"yyyy-mm-dd")</f>
-        <v>2022-12-07</v>
+        <v>2022-12-10</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>28</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>25</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>20</v>
